--- a/TestResults/MonthOfYearGet.xlsx
+++ b/TestResults/MonthOfYearGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t/>
   </si>
   <si>
-    <t>Success</t>
+    <t>SUCCESS</t>
   </si>
   <si>
     <t>200</t>
@@ -71,174 +71,90 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 24, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 12, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_monthOfYearNumber: 5
+DB_monthOfYearNumber: 5
+Response_monthOfYearShortName: Test_May
+DB_monthOfYearShortName: Test_May
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_monthOfYearNumber: 7
+DB_monthOfYearNumber: 7
+Response_monthOfYearShortName: Test_July
+DB_monthOfYearShortName: Test_July
+</t>
   </si>
   <si>
     <t xml:space="preserve">Response_monthOfYearNumber: 8
 DB_monthOfYearNumber: 8
-Response_monthOfYearShortName: August
-DB_monthOfYearShortName: August
+Response_monthOfYearShortName: Test_Aug
+DB_monthOfYearShortName: Test_Aug
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_monthOfYearNumber: 10
+DB_monthOfYearNumber: 10
+Response_monthOfYearShortName: Test_Oct
+DB_monthOfYearShortName: Test_Oct
 </t>
   </si>
   <si>
     <t xml:space="preserve">Response_monthOfYearNumber: 11
 DB_monthOfYearNumber: 11
-Response_monthOfYearShortName: November
-DB_monthOfYearShortName: November
+Response_monthOfYearShortName: Test_Nov
+DB_monthOfYearShortName: Test_Nov
 </t>
   </si>
   <si>
     <t xml:space="preserve">Response_monthOfYearNumber: 2
 DB_monthOfYearNumber: 2
-Response_monthOfYearShortName: February
-DB_monthOfYearShortName: February
+Response_monthOfYearShortName: Test_Feb
+DB_monthOfYearShortName: Test_Feb
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 5
-DB_monthOfYearNumber: 5
-Response_monthOfYearShortName: May
-DB_monthOfYearShortName: May
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 104
-DB_monthOfYearNumber: 104
+    <t xml:space="preserve">Response_monthOfYearNumber: 4
+DB_monthOfYearNumber: 4
 Response_monthOfYearShortName: Test_Apr
 DB_monthOfYearShortName: Test_Apr
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 108
-DB_monthOfYearNumber: 108
-Response_monthOfYearShortName: Test_Aug
-DB_monthOfYearShortName: Test_Aug
+    <t xml:space="preserve">Response_monthOfYearNumber: 6
+DB_monthOfYearNumber: 6
+Response_monthOfYearShortName: Test_June
+DB_monthOfYearShortName: Test_June
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 110
-DB_monthOfYearNumber: 110
-Response_monthOfYearShortName: Test_Oct
-DB_monthOfYearShortName: Test_Oct
+    <t xml:space="preserve">Response_monthOfYearNumber: 12
+DB_monthOfYearNumber: 12
+Response_monthOfYearShortName: Test_Dec
+DB_monthOfYearShortName: Test_Dec
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 102
-DB_monthOfYearNumber: 102
-Response_monthOfYearShortName: Test_Feb
-DB_monthOfYearShortName: Test_Feb
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 105
-DB_monthOfYearNumber: 105
-Response_monthOfYearShortName: Test_May
-DB_monthOfYearShortName: Test_May
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 101
-DB_monthOfYearNumber: 101
-Response_monthOfYearShortName: Test_Jan1
-DB_monthOfYearShortName: Test_Jan1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 4
-DB_monthOfYearNumber: 4
-Response_monthOfYearShortName: April
-DB_monthOfYearShortName: April
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 103
-DB_monthOfYearNumber: 103
+    <t xml:space="preserve">Response_monthOfYearNumber: 3
+DB_monthOfYearNumber: 3
 Response_monthOfYearShortName: Test_Mar
 DB_monthOfYearShortName: Test_Mar
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 106
-DB_monthOfYearNumber: 106
-Response_monthOfYearShortName: Test_Jun
-DB_monthOfYearShortName: Test_Jun
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 107
-DB_monthOfYearNumber: 107
-Response_monthOfYearShortName: Test_Jul
-DB_monthOfYearShortName: Test_Jul
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 109
-DB_monthOfYearNumber: 109
-Response_monthOfYearShortName: Test_Sep
-DB_monthOfYearShortName: Test_Sep
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 111
-DB_monthOfYearNumber: 111
-Response_monthOfYearShortName: Test_Nov
-DB_monthOfYearShortName: Test_Nov
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 112
-DB_monthOfYearNumber: 112
-Response_monthOfYearShortName: Test_Dec
-DB_monthOfYearShortName: Test_Dec
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 6
-DB_monthOfYearNumber: 6
-Response_monthOfYearShortName: June
-DB_monthOfYearShortName: June
+    <t xml:space="preserve">Response_monthOfYearNumber: 9
+DB_monthOfYearNumber: 9
+Response_monthOfYearShortName: Test_Sept
+DB_monthOfYearShortName: Test_Sept
 </t>
   </si>
   <si>
     <t xml:space="preserve">Response_monthOfYearNumber: 1
 DB_monthOfYearNumber: 1
-Response_monthOfYearShortName: January
-DB_monthOfYearShortName: January
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 3
-DB_monthOfYearNumber: 3
-Response_monthOfYearShortName: March
-DB_monthOfYearShortName: March
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 7
-DB_monthOfYearNumber: 7
-Response_monthOfYearShortName: July
-DB_monthOfYearShortName: July
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 9
-DB_monthOfYearNumber: 9
-Response_monthOfYearShortName: September
-DB_monthOfYearShortName: September
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 10
-DB_monthOfYearNumber: 10
-Response_monthOfYearShortName: October
-DB_monthOfYearShortName: October
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_monthOfYearNumber: 12
-DB_monthOfYearNumber: 12
-Response_monthOfYearShortName: December
-DB_monthOfYearShortName: December
+Response_monthOfYearShortName: Test_Jan
+DB_monthOfYearShortName: Test_Jan
 </t>
   </si>
   <si>
@@ -253,11 +169,102 @@
   <si>
     <t xml:space="preserve">
 {
-	"timestamp":"2020-01-22T11:57:22.264+0000",
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/monthsOfYea"
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"38c31bc4-665b-4983-91e5-59ea132e72d7",
+		"timeStamp":"2020-06-18T08:09:20.683+0000",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the GET method for URL /v2/monthsOfYea"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use GET url but selecting POST method.</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"fd939e5f-8179-4e67-b8b7-a15867f8f10b",
+		"timeStamp":"2020-06-18T08:09:21.940+0000",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'POST' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-18T08:09:23.350+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
 }</t>
   </si>
 </sst>
@@ -266,7 +273,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="288">
+  <fonts count="178">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -279,556 +286,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1777,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2308,336 +1765,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3170,10 +2297,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="145">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="146">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s" s="147">
         <v>13</v>
@@ -3185,16 +2312,14 @@
         <v>15</v>
       </c>
       <c r="F15" t="s" s="150">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s" s="151">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" s="151"/>
       <c r="H15" t="s" s="152">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s" s="153">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s" s="154">
         <v>18</v>
@@ -3206,10 +2331,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="156">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="157">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s" s="158">
         <v>13</v>
@@ -3221,16 +2346,14 @@
         <v>15</v>
       </c>
       <c r="F16" t="s" s="161">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s" s="162">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" s="162"/>
       <c r="H16" t="s" s="163">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="164">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="165">
         <v>18</v>
@@ -3242,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="167">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="168">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s" s="169">
         <v>13</v>
@@ -3257,16 +2380,14 @@
         <v>15</v>
       </c>
       <c r="F17" t="s" s="172">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s" s="173">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" s="173"/>
       <c r="H17" t="s" s="174">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s" s="175">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s" s="176">
         <v>18</v>
@@ -3275,366 +2396,6 @@
         <v>15</v>
       </c>
       <c r="L17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="178">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s" s="179">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s" s="180">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s" s="181">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="182">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s" s="183">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s" s="184">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s" s="185">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s" s="186">
-        <v>35</v>
-      </c>
-      <c r="J18" t="s" s="187">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s" s="188">
-        <v>15</v>
-      </c>
-      <c r="L18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="189">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s" s="190">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s" s="191">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s" s="192">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="193">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s" s="194">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s" s="195">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s" s="196">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s" s="197">
-        <v>36</v>
-      </c>
-      <c r="J19" t="s" s="198">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s" s="199">
-        <v>15</v>
-      </c>
-      <c r="L19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="200">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s" s="201">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s" s="202">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="203">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s" s="204">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s" s="205">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s" s="206">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s" s="207">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s" s="208">
-        <v>37</v>
-      </c>
-      <c r="J20" t="s" s="209">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s" s="210">
-        <v>15</v>
-      </c>
-      <c r="L20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="211">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s" s="212">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s" s="213">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s" s="214">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="215">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s" s="216">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s" s="217">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s" s="218">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s" s="219">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="220">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s" s="221">
-        <v>15</v>
-      </c>
-      <c r="L21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="222">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s" s="223">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s" s="224">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s" s="225">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s" s="226">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s" s="227">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s" s="228">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s" s="229">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s" s="230">
-        <v>39</v>
-      </c>
-      <c r="J22" t="s" s="231">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s" s="232">
-        <v>15</v>
-      </c>
-      <c r="L22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="233">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s" s="234">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="235">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s" s="236">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s" s="237">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s" s="238">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s" s="239">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s" s="240">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s" s="241">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s" s="242">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s" s="243">
-        <v>15</v>
-      </c>
-      <c r="L23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="244">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s" s="245">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s" s="246">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s" s="247">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s" s="248">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s" s="249">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s" s="250">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s" s="251">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s" s="252">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s" s="253">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s" s="254">
-        <v>15</v>
-      </c>
-      <c r="L24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="255">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s" s="256">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s" s="257">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s" s="258">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s" s="259">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s" s="260">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s" s="261">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s" s="262">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s" s="263">
-        <v>42</v>
-      </c>
-      <c r="J25" t="s" s="264">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s" s="265">
-        <v>15</v>
-      </c>
-      <c r="L25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="266">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s" s="267">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s" s="268">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s" s="269">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s" s="270">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s" s="271">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s" s="272">
-        <v>15</v>
-      </c>
-      <c r="H26" t="s" s="273">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s" s="274">
-        <v>43</v>
-      </c>
-      <c r="J26" t="s" s="275">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s" s="276">
-        <v>15</v>
-      </c>
-      <c r="L26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="277">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s" s="278">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s" s="279">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s" s="280">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s" s="281">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s" s="282">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s" s="283">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s" s="284">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s" s="285">
-        <v>47</v>
-      </c>
-      <c r="J27" t="s" s="286">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s" s="287">
-        <v>15</v>
-      </c>
-      <c r="L27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
